--- a/pt4results.xlsx
+++ b/pt4results.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Set</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Weights added</t>
   </si>
   <si>
     <t xml:space="preserve">Incremental Mass Balanced (g)</t>
@@ -31,7 +31,13 @@
     <t xml:space="preserve">Total Mass Balanced (g)</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Added Weight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Force (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Downward Force from Added Weights</t>
   </si>
   <si>
     <t xml:space="preserve">Voltage (V)</t>
@@ -86,7 +92,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,6 +122,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
@@ -125,6 +136,16 @@
       <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -241,8 +262,8 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -255,7 +276,325 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Total added Weight v Current</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>81.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>487.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="60765209"/>
+        <c:axId val="28826180"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60765209"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28826180"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28826180"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Added Weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60765209"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +643,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -374,7 +713,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -410,7 +749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -446,11 +785,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1214221"/>
-        <c:axId val="33366226"/>
+        <c:axId val="35244069"/>
+        <c:axId val="44609402"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1214221"/>
+        <c:axId val="35244069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,12 +855,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33366226"/>
+        <c:crossAx val="44609402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33366226"/>
+        <c:axId val="44609402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214221"/>
+        <c:crossAx val="35244069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -641,14 +980,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1055880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -656,12 +995,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="2918520"/>
-        <a:ext cx="6946920" cy="2514240"/>
+        <a:off x="0" y="3425040"/>
+        <a:ext cx="6946560" cy="2513880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>926640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7205760" y="2346480"/>
+        <a:ext cx="5377320" cy="3485880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -675,25 +1044,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J16"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="32.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="33.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="2" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="33.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="2" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,10 +1096,16 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">C14</f>
@@ -741,35 +1116,41 @@
         <v>335.218230079264</v>
       </c>
       <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <f aca="false">C2/1000*9.81</f>
         <v>3.28849083707758</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>3.3</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <f aca="false">E2*F2</f>
+      <c r="I2" s="2" t="n">
+        <f aca="false">G2*H2</f>
         <v>5.181</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <f aca="false">B2/1000*9.81</f>
         <v>3.28849083707758</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">F2</f>
+      <c r="K2" s="2" t="n">
+        <f aca="false">H2</f>
         <v>3.3</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <f aca="false">H2/I2</f>
+      <c r="L2" s="2" t="n">
+        <f aca="false">J2/K2</f>
         <v>0.996512374871993</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>81.53</v>
@@ -779,35 +1160,43 @@
         <v>416.748230079264</v>
       </c>
       <c r="D3" s="2" t="n">
+        <f aca="false">D2+B3</f>
+        <v>81.53</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <f aca="false">C3/1000*9.81</f>
         <v>4.08830013707758</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="2" t="n">
+        <f aca="false">D3/1000*9.81</f>
+        <v>0.7998093</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">E3*F3</f>
+      <c r="I3" s="2" t="n">
+        <f aca="false">G3*H3</f>
         <v>8.036</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <f aca="false">B3/1000*9.81</f>
         <v>0.7998093</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <f aca="false">F3-F2</f>
+      <c r="K3" s="2" t="n">
+        <f aca="false">H3-H2</f>
         <v>0.8</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <f aca="false">H3/I3</f>
+      <c r="L3" s="2" t="n">
+        <f aca="false">J3/K3</f>
         <v>0.999761625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>81.11</v>
@@ -817,35 +1206,43 @@
         <v>497.858230079264</v>
       </c>
       <c r="D4" s="2" t="n">
+        <f aca="false">D3+B4</f>
+        <v>162.64</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <f aca="false">C4/1000*9.81</f>
         <v>4.88398923707758</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
+        <f aca="false">D4/1000*9.81</f>
+        <v>1.5954984</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">E4*F4</f>
+      <c r="I4" s="2" t="n">
+        <f aca="false">G4*H4</f>
         <v>11.8</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <f aca="false">B4/1000*9.81</f>
         <v>0.7956891</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <f aca="false">F4-F3</f>
+      <c r="K4" s="2" t="n">
+        <f aca="false">H4-H3</f>
         <v>0.9</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <f aca="false">H4/I4</f>
+      <c r="L4" s="2" t="n">
+        <f aca="false">J4/K4</f>
         <v>0.884099</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>81.32</v>
@@ -855,35 +1252,43 @@
         <v>579.178230079264</v>
       </c>
       <c r="D5" s="2" t="n">
+        <f aca="false">D4+B5</f>
+        <v>243.96</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <f aca="false">C5/1000*9.81</f>
         <v>5.68173843707758</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
+        <f aca="false">D5/1000*9.81</f>
+        <v>2.3932476</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>2.72</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>5.7</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <f aca="false">E5*F5</f>
+      <c r="I5" s="2" t="n">
+        <f aca="false">G5*H5</f>
         <v>15.504</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <f aca="false">B5/1000*9.81</f>
         <v>0.7977492</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <f aca="false">F5-F4</f>
+      <c r="K5" s="2" t="n">
+        <f aca="false">H5-H4</f>
         <v>0.7</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">H5/I5</f>
+      <c r="L5" s="2" t="n">
+        <f aca="false">J5/K5</f>
         <v>1.13964171428571</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>81.12</v>
@@ -893,35 +1298,43 @@
         <v>660.298230079264</v>
       </c>
       <c r="D6" s="2" t="n">
+        <f aca="false">D5+B6</f>
+        <v>325.08</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <f aca="false">C6/1000*9.81</f>
         <v>6.47752563707758</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
+        <f aca="false">D6/1000*9.81</f>
+        <v>3.1890348</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>3.05</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <f aca="false">E6*F6</f>
+      <c r="I6" s="2" t="n">
+        <f aca="false">G6*H6</f>
         <v>20.13</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <f aca="false">B6/1000*9.81</f>
         <v>0.7957872</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <f aca="false">F6-F5</f>
+      <c r="K6" s="2" t="n">
+        <f aca="false">H6-H5</f>
         <v>0.9</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <f aca="false">H6/I6</f>
+      <c r="L6" s="2" t="n">
+        <f aca="false">J6/K6</f>
         <v>0.884208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>81.65</v>
@@ -931,35 +1344,43 @@
         <v>741.948230079264</v>
       </c>
       <c r="D7" s="2" t="n">
+        <f aca="false">D6+B7</f>
+        <v>406.73</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <f aca="false">C7/1000*9.81</f>
         <v>7.27851213707758</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
+        <f aca="false">D7/1000*9.81</f>
+        <v>3.9900213</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>3.45</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>7.6</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <f aca="false">E7*F7</f>
+      <c r="I7" s="2" t="n">
+        <f aca="false">G7*H7</f>
         <v>26.22</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <f aca="false">B7/1000*9.81</f>
         <v>0.8009865</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <f aca="false">F7-F6</f>
+      <c r="K7" s="2" t="n">
+        <f aca="false">H7-H6</f>
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <f aca="false">H7/I7</f>
+      <c r="L7" s="2" t="n">
+        <f aca="false">J7/K7</f>
         <v>0.8009865</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>81.19</v>
@@ -969,35 +1390,43 @@
         <v>823.138230079264</v>
       </c>
       <c r="D8" s="2" t="n">
+        <f aca="false">D7+B8</f>
+        <v>487.92</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <f aca="false">C8/1000*9.81</f>
         <v>8.07498603707758</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
+        <f aca="false">D8/1000*9.81</f>
+        <v>4.7864952</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>3.68</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>8.3</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <f aca="false">E8*F8</f>
+      <c r="I8" s="2" t="n">
+        <f aca="false">G8*H8</f>
         <v>30.544</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <f aca="false">B8/1000*9.81</f>
         <v>0.7964739</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <f aca="false">F8-F7</f>
+      <c r="K8" s="2" t="n">
+        <f aca="false">H8-H7</f>
         <v>0.700000000000001</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <f aca="false">H8/I8</f>
+      <c r="L8" s="2" t="n">
+        <f aca="false">J8/K8</f>
         <v>1.13781985714286</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>81.43</v>
@@ -1007,35 +1436,43 @@
         <v>904.568230079264</v>
       </c>
       <c r="D9" s="2" t="n">
+        <f aca="false">D8+B9</f>
+        <v>569.35</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <f aca="false">C9/1000*9.81</f>
         <v>8.87381433707758</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
+        <f aca="false">D9/1000*9.81</f>
+        <v>5.5853235</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>4.07</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>9.3</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">E9*F9</f>
+      <c r="I9" s="2" t="n">
+        <f aca="false">G9*H9</f>
         <v>37.851</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">B9/1000*9.81</f>
         <v>0.7988283</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">F9-F8</f>
+      <c r="K9" s="2" t="n">
+        <f aca="false">H9-H8</f>
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">H9/I9</f>
+      <c r="L9" s="2" t="n">
+        <f aca="false">J9/K9</f>
         <v>0.7988283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>80.65</v>
@@ -1045,89 +1482,97 @@
         <v>985.218230079264</v>
       </c>
       <c r="D10" s="2" t="n">
+        <f aca="false">D9+B10</f>
+        <v>650</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <f aca="false">C10/1000*9.81</f>
         <v>9.66499083707758</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F10" s="2" t="n">
+        <f aca="false">D10/1000*9.81</f>
+        <v>6.3765</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>4.35</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>9.9</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">E10*F10</f>
+      <c r="I10" s="2" t="n">
+        <f aca="false">G10*H10</f>
         <v>43.065</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">B10/1000*9.81</f>
         <v>0.7911765</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">F10-F9</f>
+      <c r="K10" s="2" t="n">
+        <f aca="false">H10-H9</f>
         <v>0.6</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">H10/I10</f>
+      <c r="L10" s="2" t="n">
+        <f aca="false">J10/K10</f>
         <v>1.3186275</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <f aca="false">AVERAGE(J3:J10)</f>
+        <f aca="false">AVERAGE(L3:L10)</f>
         <v>0.995496562053571</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="n">
-        <f aca="false">AVERAGE(J3:J9)</f>
+        <f aca="false">AVERAGE(L3:L9)</f>
         <v>0.949334999489796</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="n">
-        <f aca="false">C12*F2/9.8*1000</f>
+        <f aca="false">C12*H2/9.8*1000</f>
         <v>335.218230079264</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">9*0.9723</f>
         <v>8.7507</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>8.50254756467698</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/pt4results.xlsx
+++ b/pt4results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Weights added</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Power (W)</t>
   </si>
   <si>
+    <t xml:space="preserve">Resistance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Force increment (N)</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Incremental Efficiency (N/A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Efficiency N/W</t>
   </si>
   <si>
     <t xml:space="preserve">Average efficiency ex. Bobbin</t>
@@ -276,325 +282,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Total added Weight v Current</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>81.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>162.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>325.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>487.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>569.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>650</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$3:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="60765209"/>
-        <c:axId val="28826180"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="60765209"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Current (A)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28826180"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="28826180"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Added Weight (g)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="60765209"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -785,11 +473,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35244069"/>
-        <c:axId val="44609402"/>
+        <c:axId val="98432362"/>
+        <c:axId val="77203267"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35244069"/>
+        <c:axId val="98432362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,12 +543,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44609402"/>
+        <c:crossAx val="77203267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44609402"/>
+        <c:axId val="77203267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35244069"/>
+        <c:crossAx val="98432362"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,6 +662,324 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Total Added Weight v Current</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>81.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>487.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="14852914"/>
+        <c:axId val="19376537"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="14852914"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19376537"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="19376537"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Added Weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14852914"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -981,13 +987,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1055880</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -995,7 +1001,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="3425040"/>
+        <a:off x="0" y="3425400"/>
         <a:ext cx="6946560" cy="2513880"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1008,16 +1014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>232920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>926640</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2506320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1025,7 +1031,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7205760" y="2346480"/>
+        <a:off x="12001680" y="1810800"/>
         <a:ext cx="5377320" cy="3485880"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1044,10 +1050,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,10 +1065,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="33.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="2" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="33.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="2" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,6 +1108,12 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -1136,16 +1148,24 @@
         <v>5.181</v>
       </c>
       <c r="J2" s="2" t="n">
+        <f aca="false">G2/H2</f>
+        <v>0.475757575757576</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <f aca="false">B2/1000*9.81</f>
         <v>3.28849083707758</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">H2</f>
         <v>3.3</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <f aca="false">J2/K2</f>
+      <c r="M2" s="2" t="n">
+        <f aca="false">K2/L2</f>
         <v>0.996512374871993</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <f aca="false">E2/I2</f>
+        <v>0.634721257880251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,16 +1202,24 @@
         <v>8.036</v>
       </c>
       <c r="J3" s="2" t="n">
+        <f aca="false">G3/H3</f>
+        <v>0.478048780487805</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <f aca="false">B3/1000*9.81</f>
         <v>0.7998093</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="L3" s="2" t="n">
         <f aca="false">H3-H2</f>
         <v>0.8</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <f aca="false">J3/K3</f>
+      <c r="M3" s="2" t="n">
+        <f aca="false">K3/L3</f>
         <v>0.999761625</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <f aca="false">E3/I3</f>
+        <v>0.508748150457638</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,16 +1256,24 @@
         <v>11.8</v>
       </c>
       <c r="J4" s="2" t="n">
+        <f aca="false">G4/H4</f>
+        <v>0.472</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <f aca="false">B4/1000*9.81</f>
         <v>0.7956891</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">H4-H3</f>
         <v>0.9</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <f aca="false">J4/K4</f>
+      <c r="M4" s="2" t="n">
+        <f aca="false">K4/L4</f>
         <v>0.884099</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <f aca="false">E4/I4</f>
+        <v>0.413897392972676</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,16 +1310,24 @@
         <v>15.504</v>
       </c>
       <c r="J5" s="2" t="n">
+        <f aca="false">G5/H5</f>
+        <v>0.47719298245614</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <f aca="false">B5/1000*9.81</f>
         <v>0.7977492</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="L5" s="2" t="n">
         <f aca="false">H5-H4</f>
         <v>0.7</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <f aca="false">J5/K5</f>
+      <c r="M5" s="2" t="n">
+        <f aca="false">K5/L5</f>
         <v>1.13964171428571</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <f aca="false">E5/I5</f>
+        <v>0.366469197437924</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,16 +1364,24 @@
         <v>20.13</v>
       </c>
       <c r="J6" s="2" t="n">
+        <f aca="false">G6/H6</f>
+        <v>0.462121212121212</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <f aca="false">B6/1000*9.81</f>
         <v>0.7957872</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">H6-H5</f>
         <v>0.9</v>
       </c>
-      <c r="L6" s="2" t="n">
-        <f aca="false">J6/K6</f>
+      <c r="M6" s="2" t="n">
+        <f aca="false">K6/L6</f>
         <v>0.884208</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <f aca="false">E6/I6</f>
+        <v>0.321784681424619</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,16 +1418,24 @@
         <v>26.22</v>
       </c>
       <c r="J7" s="2" t="n">
+        <f aca="false">G7/H7</f>
+        <v>0.453947368421053</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <f aca="false">B7/1000*9.81</f>
         <v>0.8009865</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="2" t="n">
         <f aca="false">H7-H6</f>
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <f aca="false">J7/K7</f>
+      <c r="M7" s="2" t="n">
+        <f aca="false">K7/L7</f>
         <v>0.8009865</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">E7/I7</f>
+        <v>0.277593903015926</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,16 +1472,24 @@
         <v>30.544</v>
       </c>
       <c r="J8" s="2" t="n">
+        <f aca="false">G8/H8</f>
+        <v>0.443373493975904</v>
+      </c>
+      <c r="K8" s="2" t="n">
         <f aca="false">B8/1000*9.81</f>
         <v>0.7964739</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="L8" s="2" t="n">
         <f aca="false">H8-H7</f>
         <v>0.700000000000001</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <f aca="false">J8/K8</f>
+      <c r="M8" s="2" t="n">
+        <f aca="false">K8/L8</f>
         <v>1.13781985714286</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <f aca="false">E8/I8</f>
+        <v>0.264372251082948</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,16 +1526,24 @@
         <v>37.851</v>
       </c>
       <c r="J9" s="2" t="n">
+        <f aca="false">G9/H9</f>
+        <v>0.437634408602151</v>
+      </c>
+      <c r="K9" s="2" t="n">
         <f aca="false">B9/1000*9.81</f>
         <v>0.7988283</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">H9-H8</f>
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">J9/K9</f>
+      <c r="M9" s="2" t="n">
+        <f aca="false">K9/L9</f>
         <v>0.7988283</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <f aca="false">E9/I9</f>
+        <v>0.234440684184766</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,75 +1580,83 @@
         <v>43.065</v>
       </c>
       <c r="J10" s="2" t="n">
+        <f aca="false">G10/H10</f>
+        <v>0.439393939393939</v>
+      </c>
+      <c r="K10" s="2" t="n">
         <f aca="false">B10/1000*9.81</f>
         <v>0.7911765</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">H10-H9</f>
         <v>0.6</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">J10/K10</f>
+      <c r="M10" s="2" t="n">
+        <f aca="false">K10/L10</f>
         <v>1.3186275</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <f aca="false">E10/I10</f>
+        <v>0.224427977175841</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="n">
-        <f aca="false">AVERAGE(L3:L10)</f>
+        <f aca="false">AVERAGE(M3:M10)</f>
         <v>0.995496562053571</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <f aca="false">AVERAGE(L3:L9)</f>
+        <f aca="false">AVERAGE(M3:M9)</f>
         <v>0.949334999489796</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">C12*H2/9.8*1000</f>
         <v>335.218230079264</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="n">
         <f aca="false">9*0.9723</f>
         <v>8.7507</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>8.50254756467698</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
